--- a/scripts/valTool/Tests.xlsx
+++ b/scripts/valTool/Tests.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
